--- a/biology/Botanique/Acuna/Acuna.xlsx
+++ b/biology/Botanique/Acuna/Acuna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bejaria est un genre de plantes à fleurs de la famille des Ericaceae, originaire d'Amérique centrale et du Sud. Bejaria aestuans est l'espèce type[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bejaria est un genre de plantes à fleurs de la famille des Ericaceae, originaire d'Amérique centrale et du Sud. Bejaria aestuans est l'espèce type.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (10 juin 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (10 juin 2021) :
 Bejaria aestuans L.
 Bejaria cubensis Griseb.
 Bejaria elliptica L.O.Williams
@@ -560,14 +574,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les genres suivants sont synonymes de Bejaria Mutis :
-Acuna Endl., 1839[4]
-Acunna Ruiz &amp; Pav.[1]
-Befaria Mutis ex L.[1]
-Heptacarpis Conz., 1940[4]
-Jurgensenia Turcz., 1847[1],[4]</t>
+Acuna Endl., 1839
+Acunna Ruiz &amp; Pav.
+Befaria Mutis ex L.
+Heptacarpis Conz., 1940
+Jurgensenia Turcz., 1847,</t>
         </is>
       </c>
     </row>
